--- a/state_results.xlsx
+++ b/state_results.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,844 +462,1342 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
+      <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Annual excess deaths</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage increase in death rate</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
           <t>95% UI Lower</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Median</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>95% UI Upper</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Alabama</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>69.30455917887463</v>
-      </c>
-      <c r="C2" t="n">
-        <v>336.0248541726032</v>
-      </c>
-      <c r="D2" t="n">
-        <v>686.7516899162221</v>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>95% UI Lower</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Median</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>95% UI Upper</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Alaska</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>35.08760243744928</v>
-      </c>
-      <c r="C3" t="n">
-        <v>169.9683827301509</v>
-      </c>
-      <c r="D3" t="n">
-        <v>347.4472041513403</v>
+          <t>State</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Arizona</t>
+          <t>Alabama</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>322.513399375871</v>
+        <v>69.30455917887463</v>
       </c>
       <c r="C4" t="n">
-        <v>1563.3507807971</v>
+        <v>336.0248541726032</v>
       </c>
       <c r="D4" t="n">
-        <v>3193.237323447023</v>
+        <v>686.7516899162221</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6257224635066505</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.033830703830986</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.200399574328652</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Arkansas</t>
+          <t>Alaska</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93.12004722676559</v>
+        <v>35.08760243744928</v>
       </c>
       <c r="C5" t="n">
-        <v>453.6329651516157</v>
+        <v>169.9683827301509</v>
       </c>
       <c r="D5" t="n">
-        <v>932.9223336435655</v>
+        <v>347.4472041513403</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.190055222897458</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.60887944649949</v>
+      </c>
+      <c r="G5" t="n">
+        <v>21.68653630550192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Arizona</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2456.424144870773</v>
+        <v>322.513399375871</v>
       </c>
       <c r="C6" t="n">
-        <v>12080.44706289663</v>
+        <v>1563.3507807971</v>
       </c>
       <c r="D6" t="n">
-        <v>25122.68845993687</v>
+        <v>3193.237323447023</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.051739101284911</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.945595848709088</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20.31447341064743</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>Arkansas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.14121926727</v>
+        <v>93.12004722676559</v>
       </c>
       <c r="C7" t="n">
-        <v>800.7562954368186</v>
+        <v>453.6329651516157</v>
       </c>
       <c r="D7" t="n">
-        <v>1662.301752503794</v>
+        <v>932.9223336435655</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.421641101646931</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.92550409420476</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14.2426982551062</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Connecticut</t>
+          <t>California</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>165.6253940088938</v>
+        <v>2456.424144870773</v>
       </c>
       <c r="C8" t="n">
-        <v>820.4528353283658</v>
+        <v>12080.44706289663</v>
       </c>
       <c r="D8" t="n">
-        <v>1725.506262865831</v>
+        <v>25122.68845993687</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.734004409310065</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13.44555890535506</v>
+      </c>
+      <c r="G8" t="n">
+        <v>27.96159660236699</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delaware</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34.94501991168167</v>
+        <v>163.14121926727</v>
       </c>
       <c r="C9" t="n">
-        <v>172.3071884086066</v>
+        <v>800.7562954368186</v>
       </c>
       <c r="D9" t="n">
-        <v>360.8742786601764</v>
+        <v>1662.301752503794</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.212894221581773</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5.953324904599344</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12.35859459180588</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>District of Columbia</t>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48.09078058277868</v>
+        <v>165.6253940088938</v>
       </c>
       <c r="C10" t="n">
-        <v>240.7770165183109</v>
+        <v>820.4528353283658</v>
       </c>
       <c r="D10" t="n">
-        <v>514.5103771915445</v>
+        <v>1725.506262865831</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.032970900662101</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10.07065824398108</v>
+      </c>
+      <c r="G10" t="n">
+        <v>21.17974747959284</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>Delaware</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>316.0880957942142</v>
+        <v>34.94501991168167</v>
       </c>
       <c r="C11" t="n">
-        <v>1518.685287964316</v>
+        <v>172.3071884086066</v>
       </c>
       <c r="D11" t="n">
-        <v>3065.876990421349</v>
+        <v>360.8742786601764</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.609989290188785</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.938548287038194</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16.62622385724444</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>140.9405837032674</v>
+        <v>48.09078058277868</v>
       </c>
       <c r="C12" t="n">
-        <v>676.4505466219507</v>
+        <v>240.7770165183109</v>
       </c>
       <c r="D12" t="n">
-        <v>1363.934357987943</v>
+        <v>514.5103771915445</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.835047244090316</v>
+      </c>
+      <c r="F12" t="n">
+        <v>14.19428441061679</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30.33141091153566</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Hawaii</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.8898234899999</v>
+        <v>316.0880957942142</v>
       </c>
       <c r="C13" t="n">
-        <v>328.8018057715979</v>
+        <v>1518.685287964316</v>
       </c>
       <c r="D13" t="n">
-        <v>698.5679773256502</v>
+        <v>3065.876990421349</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6645592039456583</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.192958860021777</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.445851011979253</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Idaho</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39.33498623733701</v>
+        <v>140.9405837032674</v>
       </c>
       <c r="C14" t="n">
-        <v>191.4080326491153</v>
+        <v>676.4505466219507</v>
       </c>
       <c r="D14" t="n">
-        <v>393.4144195168537</v>
+        <v>1363.934357987943</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5800516194313321</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.783983326331141</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5.613374887212164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Illinois</t>
+          <t>Hawaii</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>406.7883733917757</v>
+        <v>65.8898234899999</v>
       </c>
       <c r="C15" t="n">
-        <v>1999.093055033454</v>
+        <v>328.8018057715979</v>
       </c>
       <c r="D15" t="n">
-        <v>4155.726903060965</v>
+        <v>698.5679773256502</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.199049908344097</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10.97364573992436</v>
+      </c>
+      <c r="G15" t="n">
+        <v>23.31446291919781</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Indiana</t>
+          <t>Idaho</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>263.4362804442206</v>
+        <v>39.33498623733701</v>
       </c>
       <c r="C16" t="n">
-        <v>1294.234436902238</v>
+        <v>191.4080326491153</v>
       </c>
       <c r="D16" t="n">
-        <v>2690.044204620527</v>
+        <v>393.4144195168537</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9705284949765414</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.722690094067872</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9.706877795048952</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Iowa</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>84.8166863393444</v>
+        <v>406.7883733917757</v>
       </c>
       <c r="C17" t="n">
-        <v>420.8433575030176</v>
+        <v>1999.093055033454</v>
       </c>
       <c r="D17" t="n">
-        <v>886.4225776957888</v>
+        <v>4155.726903060965</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.424128811549363</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.998641561221497</v>
+      </c>
+      <c r="G17" t="n">
+        <v>14.5488189995048</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Kansas</t>
+          <t>Indiana</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18.32553409155605</v>
+        <v>263.4362804442206</v>
       </c>
       <c r="C18" t="n">
-        <v>89.2905925791697</v>
+        <v>1294.234436902238</v>
       </c>
       <c r="D18" t="n">
-        <v>183.6057660165777</v>
+        <v>2690.044204620527</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.753819867876194</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8.616330542251616</v>
+      </c>
+      <c r="G18" t="n">
+        <v>17.90889608512991</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Kentucky</t>
+          <t>Iowa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>192.9851876302861</v>
+        <v>84.8166863393444</v>
       </c>
       <c r="C19" t="n">
-        <v>953.815797070818</v>
+        <v>420.8433575030176</v>
       </c>
       <c r="D19" t="n">
-        <v>1998.256532435416</v>
+        <v>886.4225776957888</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.221656616421107</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6.061614693522266</v>
+      </c>
+      <c r="G19" t="n">
+        <v>12.76758210824829</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Louisiana</t>
+          <t>Kansas</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>313.9191266687259</v>
+        <v>18.32553409155605</v>
       </c>
       <c r="C20" t="n">
-        <v>1534.909387021273</v>
+        <v>89.2905925791697</v>
       </c>
       <c r="D20" t="n">
-        <v>3170.936958624535</v>
+        <v>183.6057660165777</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2900929340506453</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.413468761947145</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.906476564680682</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Maine</t>
+          <t>Kentucky</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>56.91363918039105</v>
+        <v>192.9851876302861</v>
       </c>
       <c r="C21" t="n">
-        <v>280.0306406653365</v>
+        <v>953.815797070818</v>
       </c>
       <c r="D21" t="n">
-        <v>584.0794145531654</v>
+        <v>1998.256532435416</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.945392293161663</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9.614965394505903</v>
+      </c>
+      <c r="G21" t="n">
+        <v>20.14347787876423</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Maryland</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211.9523288701066</v>
+        <v>313.9191266687259</v>
       </c>
       <c r="C22" t="n">
-        <v>1047.027919803503</v>
+        <v>1534.909387021273</v>
       </c>
       <c r="D22" t="n">
-        <v>2192.220946228297</v>
+        <v>3170.936958624535</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.122171816594577</v>
+      </c>
+      <c r="F22" t="n">
+        <v>15.26587717046448</v>
+      </c>
+      <c r="G22" t="n">
+        <v>31.53745395980012</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Massachusetts</t>
+          <t>Maine</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.7265944118707</v>
+        <v>56.91363918039105</v>
       </c>
       <c r="C23" t="n">
-        <v>1447.669632706806</v>
+        <v>280.0306406653365</v>
       </c>
       <c r="D23" t="n">
-        <v>3092.889235684516</v>
+        <v>584.0794145531654</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.869274594091919</v>
+      </c>
+      <c r="F23" t="n">
+        <v>9.197341264786774</v>
+      </c>
+      <c r="G23" t="n">
+        <v>19.18353537533899</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Michigan</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>336.1831708931051</v>
+        <v>211.9523288701066</v>
       </c>
       <c r="C24" t="n">
-        <v>1666.488865095213</v>
+        <v>1047.027919803503</v>
       </c>
       <c r="D24" t="n">
-        <v>3504.198966906392</v>
+        <v>2192.220946228297</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.528598395738845</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7.551156465406272</v>
+      </c>
+      <c r="G24" t="n">
+        <v>15.81027884606698</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Minnesota</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>131.6629954511375</v>
+        <v>288.7265944118707</v>
       </c>
       <c r="C25" t="n">
-        <v>654.4373240156337</v>
+        <v>1447.669632706806</v>
       </c>
       <c r="D25" t="n">
-        <v>1381.575301468502</v>
+        <v>3092.889235684516</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.77657482806115</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8.907712273801183</v>
+      </c>
+      <c r="G25" t="n">
+        <v>19.03097694651606</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Mississippi</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>35.02062541821982</v>
+        <v>336.1831708931051</v>
       </c>
       <c r="C26" t="n">
-        <v>168.3576490345126</v>
+        <v>1666.488865095213</v>
       </c>
       <c r="D26" t="n">
-        <v>340.5508964994267</v>
+        <v>3504.198966906392</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.504098857478819</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7.455947278181529</v>
+      </c>
+      <c r="G26" t="n">
+        <v>15.67794618778899</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Missouri</t>
+          <t>Minnesota</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>133.6704461603279</v>
+        <v>131.6629954511375</v>
       </c>
       <c r="C27" t="n">
-        <v>651.0060779656487</v>
+        <v>654.4373240156337</v>
       </c>
       <c r="D27" t="n">
-        <v>1337.827121422266</v>
+        <v>1381.575301468502</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.038518103143971</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.162004753382421</v>
+      </c>
+      <c r="G27" t="n">
+        <v>10.89745039230949</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Mississippi</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.26276067826478</v>
+        <v>35.02062541821982</v>
       </c>
       <c r="C28" t="n">
-        <v>152.8354764618427</v>
+        <v>168.3576490345126</v>
       </c>
       <c r="D28" t="n">
-        <v>316.2805634768903</v>
+        <v>340.5508964994267</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5509579733244729</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.648667406649752</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.35767792575006</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Nebraska</t>
+          <t>Missouri</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>36.11629118378164</v>
+        <v>133.6704461603279</v>
       </c>
       <c r="C29" t="n">
-        <v>177.2517550069424</v>
+        <v>651.0060779656487</v>
       </c>
       <c r="D29" t="n">
-        <v>368.1042725730268</v>
+        <v>1337.827121422266</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9877716330904951</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4.810676969033834</v>
+      </c>
+      <c r="G29" t="n">
+        <v>9.886012342137507</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Nevada</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>114.2056447571995</v>
+        <v>31.26276067826478</v>
       </c>
       <c r="C30" t="n">
-        <v>552.1305165995336</v>
+        <v>152.8354764618427</v>
       </c>
       <c r="D30" t="n">
-        <v>1125.351054186155</v>
+        <v>316.2805634768903</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.308269996357025</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6.395790515486199</v>
+      </c>
+      <c r="G30" t="n">
+        <v>13.235567257993</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>New Hampshire</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.73012295535961</v>
+        <v>36.11629118378164</v>
       </c>
       <c r="C31" t="n">
-        <v>122.3989372651952</v>
+        <v>177.2517550069424</v>
       </c>
       <c r="D31" t="n">
-        <v>257.3391740764674</v>
+        <v>368.1042725730268</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8524941710574385</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4.183876112422569</v>
+      </c>
+      <c r="G31" t="n">
+        <v>8.688786595307075</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>New Jersey</t>
+          <t>Nevada</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>230.2552281338307</v>
+        <v>114.2056447571995</v>
       </c>
       <c r="C32" t="n">
-        <v>1129.963321268149</v>
+        <v>552.1305165995336</v>
       </c>
       <c r="D32" t="n">
-        <v>2344.914429070876</v>
+        <v>1125.351054186155</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.616012766396557</v>
+      </c>
+      <c r="F32" t="n">
+        <v>7.812660796573501</v>
+      </c>
+      <c r="G32" t="n">
+        <v>15.92374592437129</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>New Mexico</t>
+          <t>New Hampshire</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>132.3479493078391</v>
+        <v>24.73012295535961</v>
       </c>
       <c r="C33" t="n">
-        <v>642.8593150569895</v>
+        <v>122.3989372651952</v>
       </c>
       <c r="D33" t="n">
-        <v>1318.787228328759</v>
+        <v>257.3391740764674</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7779264811033304</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3.850258841388587</v>
+      </c>
+      <c r="G33" t="n">
+        <v>8.095024780131798</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1008.569822021126</v>
+        <v>230.2552281338307</v>
       </c>
       <c r="C34" t="n">
-        <v>4999.924420426636</v>
+        <v>1129.963321268149</v>
       </c>
       <c r="D34" t="n">
-        <v>10514.41945338371</v>
+        <v>2344.914429070876</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.099519167452412</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5.395822454595467</v>
+      </c>
+      <c r="G34" t="n">
+        <v>11.19748021226519</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>North Carolina</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>424.9597309848563</v>
+        <v>132.3479493078391</v>
       </c>
       <c r="C35" t="n">
-        <v>2056.591973619294</v>
+        <v>642.8593150569895</v>
       </c>
       <c r="D35" t="n">
-        <v>4190.044481388378</v>
+        <v>1318.787228328759</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.921168446274103</v>
+      </c>
+      <c r="F35" t="n">
+        <v>14.18911555758147</v>
+      </c>
+      <c r="G35" t="n">
+        <v>29.10811734439984</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>North Dakota</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>11.7566601260426</v>
+        <v>1008.569822021126</v>
       </c>
       <c r="C36" t="n">
-        <v>58.05250474448303</v>
+        <v>4999.924420426636</v>
       </c>
       <c r="D36" t="n">
-        <v>121.5159285374919</v>
+        <v>10514.41945338371</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.22028130860652</v>
+      </c>
+      <c r="F36" t="n">
+        <v>11.00691146287942</v>
+      </c>
+      <c r="G36" t="n">
+        <v>23.14660668352588</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Ohio</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>387.3048614351525</v>
+        <v>424.9597309848563</v>
       </c>
       <c r="C37" t="n">
-        <v>1910.806174320227</v>
+        <v>2056.591973619294</v>
       </c>
       <c r="D37" t="n">
-        <v>3993.137139432964</v>
+        <v>4190.044481388378</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.815246228803735</v>
+      </c>
+      <c r="F37" t="n">
+        <v>8.784881371344566</v>
+      </c>
+      <c r="G37" t="n">
+        <v>17.89807807373453</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Oklahoma</t>
+          <t>North Dakota</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>111.4908366318834</v>
+        <v>11.7566601260426</v>
       </c>
       <c r="C38" t="n">
-        <v>532.8624214021074</v>
+        <v>58.05250474448303</v>
       </c>
       <c r="D38" t="n">
-        <v>1068.72821267634</v>
+        <v>121.5159285374919</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.692049349284618</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3.417228847482678</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7.152968476634491</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Oregon</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>238.946376844803</v>
+        <v>387.3048614351525</v>
       </c>
       <c r="C39" t="n">
-        <v>1177.740033132762</v>
+        <v>1910.806174320227</v>
       </c>
       <c r="D39" t="n">
-        <v>2458.767525677377</v>
+        <v>3993.137139432964</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.493447699462891</v>
+      </c>
+      <c r="F39" t="n">
+        <v>7.368069366812779</v>
+      </c>
+      <c r="G39" t="n">
+        <v>15.39753839502078</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Pennsylvania</t>
+          <t>Oklahoma</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>360.8640591671889</v>
+        <v>111.4908366318834</v>
       </c>
       <c r="C40" t="n">
-        <v>1787.609831337784</v>
+        <v>532.8624214021074</v>
       </c>
       <c r="D40" t="n">
-        <v>3755.554969704699</v>
+        <v>1068.72821267634</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.292505344904638</v>
+      </c>
+      <c r="F40" t="n">
+        <v>6.177436178320761</v>
+      </c>
+      <c r="G40" t="n">
+        <v>12.38969021010565</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Oregon</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>44.7027904942582</v>
+        <v>238.946376844803</v>
       </c>
       <c r="C41" t="n">
-        <v>222.5404303390244</v>
+        <v>1177.740033132762</v>
       </c>
       <c r="D41" t="n">
-        <v>471.4649060641739</v>
+        <v>2458.767525677377</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.499817283617678</v>
+      </c>
+      <c r="F41" t="n">
+        <v>12.3213204958784</v>
+      </c>
+      <c r="G41" t="n">
+        <v>25.72321722659303</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>South Carolina</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>135.2648404465996</v>
+        <v>360.8640591671889</v>
       </c>
       <c r="C42" t="n">
-        <v>655.1838494767189</v>
+        <v>1787.609831337784</v>
       </c>
       <c r="D42" t="n">
-        <v>1337.982344229446</v>
+        <v>3755.554969704699</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.255747031853138</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6.220585516314636</v>
+      </c>
+      <c r="G42" t="n">
+        <v>13.06870797011972</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>South Dakota</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>12.91537887870605</v>
+        <v>44.7027904942582</v>
       </c>
       <c r="C43" t="n">
-        <v>62.90842505745206</v>
+        <v>222.5404303390244</v>
       </c>
       <c r="D43" t="n">
-        <v>129.4147768151282</v>
+        <v>471.4649060641739</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.778297403232854</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8.852759861535731</v>
+      </c>
+      <c r="G43" t="n">
+        <v>18.75508908726922</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Tennessee</t>
+          <t>South Carolina</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>125.1023422599871</v>
+        <v>135.2648404465996</v>
       </c>
       <c r="C44" t="n">
-        <v>606.359270718669</v>
+        <v>655.1838494767189</v>
       </c>
       <c r="D44" t="n">
-        <v>1238.32590600815</v>
+        <v>1337.982344229446</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.195696388568868</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5.791608226361178</v>
+      </c>
+      <c r="G44" t="n">
+        <v>11.82732077073374</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>South Dakota</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>246.7216542943672</v>
+        <v>12.91537887870605</v>
       </c>
       <c r="C45" t="n">
-        <v>1165.328015227671</v>
+        <v>62.90842505745206</v>
       </c>
       <c r="D45" t="n">
-        <v>2302.204821977048</v>
+        <v>129.4147768151282</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6811565072788905</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3.31778753786296</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6.825329569774152</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Utah</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>38.20493962123337</v>
+        <v>125.1023422599871</v>
       </c>
       <c r="C46" t="n">
-        <v>187.152717700787</v>
+        <v>606.359270718669</v>
       </c>
       <c r="D46" t="n">
-        <v>387.6765163776497</v>
+        <v>1238.32590600815</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.8019903783051729</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3.887171831698422</v>
+      </c>
+      <c r="G46" t="n">
+        <v>7.938504138960645</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Vermont</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>23.25920709423518</v>
+        <v>246.7216542943672</v>
       </c>
       <c r="C47" t="n">
-        <v>115.8155392004909</v>
+        <v>1165.328015227671</v>
       </c>
       <c r="D47" t="n">
-        <v>245.4078721118637</v>
+        <v>2302.204821977048</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.3716377557137385</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.755337971805515</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3.467819781283277</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Utah</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>263.2207140434987</v>
+        <v>38.20493962123337</v>
       </c>
       <c r="C48" t="n">
-        <v>1294.591391480892</v>
+        <v>187.152717700787</v>
       </c>
       <c r="D48" t="n">
-        <v>2693.808499737602</v>
+        <v>387.6765163776497</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.5223359868830046</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2.558742415699222</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5.300293568869918</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Vermont</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>235.6246227270684</v>
+        <v>23.25920709423518</v>
       </c>
       <c r="C49" t="n">
-        <v>1161.157204233366</v>
+        <v>115.8155392004909</v>
       </c>
       <c r="D49" t="n">
-        <v>2423.250393812082</v>
+        <v>245.4078721118637</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.606371800804496</v>
+      </c>
+      <c r="F49" t="n">
+        <v>7.998674052510957</v>
+      </c>
+      <c r="G49" t="n">
+        <v>16.9488273550668</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>West Virginia</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>67.76378554636628</v>
+        <v>263.2207140434987</v>
       </c>
       <c r="C50" t="n">
-        <v>333.5883387763542</v>
+        <v>1294.591391480892</v>
       </c>
       <c r="D50" t="n">
-        <v>696.2333528083768</v>
+        <v>2693.808499737602</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.373933770819225</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6.757381684913666</v>
+      </c>
+      <c r="G50" t="n">
+        <v>14.06087846603787</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Wisconsin</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>157.8180370962426</v>
+        <v>235.6246227270684</v>
       </c>
       <c r="C51" t="n">
-        <v>782.0893431208378</v>
+        <v>1161.157204233366</v>
       </c>
       <c r="D51" t="n">
-        <v>1643.987493505499</v>
+        <v>2423.250393812082</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.340516719665041</v>
+      </c>
+      <c r="F51" t="n">
+        <v>6.606061066195679</v>
+      </c>
+      <c r="G51" t="n">
+        <v>13.78636761830578</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
+          <t>West Virginia</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>67.76378554636628</v>
+      </c>
+      <c r="C52" t="n">
+        <v>333.5883387763542</v>
+      </c>
+      <c r="D52" t="n">
+        <v>696.2333528083768</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.765688266270593</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8.692150398520472</v>
+      </c>
+      <c r="G52" t="n">
+        <v>18.14141656532493</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Wisconsin</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>157.8180370962426</v>
+      </c>
+      <c r="C53" t="n">
+        <v>782.0893431208378</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1643.987493505499</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.206468695302321</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5.978824263474003</v>
+      </c>
+      <c r="G53" t="n">
+        <v>12.56776147312855</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
           <t>Wyoming</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="B54" t="n">
         <v>3.894331776841193</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C54" t="n">
         <v>18.79541560944983</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D54" t="n">
         <v>38.27897997791246</v>
       </c>
+      <c r="E54" t="n">
+        <v>0.3120864858819239</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.506239207230964</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3.067625726060141</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>